--- a/BridgeCareApp/BridgeCareCore/DownloadTemplates/Investment_budgets_template.xlsx
+++ b/BridgeCareApp/BridgeCareCore/DownloadTemplates/Investment_budgets_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aborgaonkar\Documents\iAM\Download Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aborgaonkar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF5F21C-1BEC-48B3-879D-FB57035C8FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1A26E2-3CEF-4B17-B14D-22DE52A72500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -35,7 +35,13 @@
     <t/>
   </si>
   <si>
-    <t>[budget name]</t>
+    <t>[budget name1]</t>
+  </si>
+  <si>
+    <t>[budget name2]</t>
+  </si>
+  <si>
+    <t>[budget name3]</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,6 +419,12 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2"/>
@@ -441,7 +453,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,16 +471,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
